--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1667366.487302811</v>
+        <v>-1644229.868756916</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.1802549</v>
+        <v>16811344.37236569</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10861034.32999665</v>
+        <v>10888836.45651819</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>402.8014912150643</v>
       </c>
       <c r="F2" t="n">
-        <v>377.7887373348031</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>177.2477212125779</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>186.0410527235261</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.0286948427377</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>49.87730231807124</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>12.95827676142962</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>186.8870780845554</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1139,19 +1139,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>234.8027870642742</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>27.20350533122119</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.45303019605547</v>
       </c>
       <c r="E10" t="n">
-        <v>154.3915579823856</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>419.848649712517</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800139</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1528,16 +1528,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016106</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>126.7641785672305</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>83.49545568307597</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800593</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,19 +1658,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1774,10 +1774,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>33.28996520190753</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>89.78186289252621</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1813,7 +1813,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313376</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2144,10 +2144,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,13 +2296,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>5.990622819018522</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>23.92593778768322</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2318,25 +2318,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791314669</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2375,13 +2375,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864839</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,10 +2530,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>249.312874628822</v>
       </c>
       <c r="V25" t="n">
-        <v>143.3627470649797</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800601</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>165.6137642219406</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3032,7 +3032,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>418.1814115968947</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3041,13 +3041,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561544</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
@@ -3193,19 +3193,19 @@
         <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730222</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413115</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496637</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385527</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545406</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>407.3530449561371</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242215</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724687</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925415</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169445</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>240.394369317406</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267645</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043298</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>398.7153284477352</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245959</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.66472219305</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628601</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317453</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730229</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591141</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856834</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.267442227782</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.5376393943242</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934622</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762361</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185821</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006749</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095266</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W37" t="n">
-        <v>253.0704300308242</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811744</v>
+        <v>226.7021267811739</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402856</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413126</v>
       </c>
       <c r="C38" t="n">
         <v>417.5253377496635</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934494</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413117</v>
       </c>
       <c r="C41" t="n">
         <v>417.5253377496635</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413114</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496636</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
         <v>413.2012870545404</v>
@@ -3992,7 +3992,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925406</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169445</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U44" t="n">
-        <v>240.394369317406</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V44" t="n">
         <v>342.7550702267644</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043297</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X44" t="n">
-        <v>398.7153284477351</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245958</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.66472219305</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591141</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432412</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293454</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
-        <v>227.184941618582</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
         <v>267.8502427095265</v>
       </c>
       <c r="W46" t="n">
-        <v>253.0704300308241</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>842.6284824977341</v>
       </c>
       <c r="C2" t="n">
-        <v>846.680625966315</v>
+        <v>842.6284824977341</v>
       </c>
       <c r="D2" t="n">
-        <v>846.680625966315</v>
+        <v>842.6284824977341</v>
       </c>
       <c r="E2" t="n">
-        <v>816.9462851650143</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4331,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>842.6284824977341</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.8484307043673</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C4" t="n">
-        <v>546.2867191875922</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4492,16 +4492,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1496.727506550862</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1218.294505803967</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1218.294505803967</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W4" t="n">
-        <v>946.2681013902591</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="X4" t="n">
-        <v>946.2681013902591</v>
+        <v>1046.670860290282</v>
       </c>
       <c r="Y4" t="n">
-        <v>718.8484307043673</v>
+        <v>858.7506050139928</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.6683834787607</v>
+        <v>2073.707788187271</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>1635.565315370694</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1603.695934585543</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1169.921189743838</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>742.0537601530455</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.6559287763093</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.52577421952562</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666562</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1118.837359777071</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1751.311047254557</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1839.796391621629</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1839.796391621629</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1839.796391621629</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1839.796391621629</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2386.295177580224</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2554.634191784718</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2504.253078332121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>2500.007358672178</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.2807298379585</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.8242686746007</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.733979821154</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.6135651481077</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>178.2297267642693</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.84463703045316</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666562</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>77.17265800712322</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>1034.204670450823</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.348746325475</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.893308773858</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.714665104459</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.378118104428</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.260600166427</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.9378458996209</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.0704101385008</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.5846309177216</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.03283704749686</v>
+        <v>1130.167145458547</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>957.605433941772</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.7274411432948</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.969437394032</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>445.2623833557881</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.6711083816158</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.7689340719903</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666562</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.6886700113555</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>300.1277721663068</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>718.3376539342678</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1177.821521115181</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1620.080324272825</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2039.749573498607</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2387.256467468948</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2534.031421038653</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2534.031421038653</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2534.031421038653</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2255.598420291758</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>2066.823593943722</v>
       </c>
       <c r="W7" t="n">
-        <v>711.6628811189632</v>
+        <v>1794.797189530014</v>
       </c>
       <c r="X7" t="n">
-        <v>466.2711264523757</v>
+        <v>1549.405434863426</v>
       </c>
       <c r="Y7" t="n">
-        <v>238.851455766484</v>
+        <v>1321.985764177534</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.069156190556</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>1132.967087414383</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>1101.097706629232</v>
+        <v>423.987815023316</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5160323665002</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>370.426448671627</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1612.716505715692</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>1597.614446335406</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>1593.368726675464</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.9498980712576</v>
+        <v>1013.503637065321</v>
       </c>
       <c r="C10" t="n">
-        <v>495.3881865544826</v>
+        <v>840.941925548546</v>
       </c>
       <c r="D10" t="n">
-        <v>495.3881865544826</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>339.4371178854062</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>859.7685167902448</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>859.7685167902448</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.7685167902448</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2205.853534909015</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1767.711062092439</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1343.62151692828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>909.8467720865752</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>481.979342495783</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>80.58151111904688</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904688</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991047</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>515.4194091991047</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1507.457840808167</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2036.017989129975</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3028.056420739038</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>4008.236087309344</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4008.236087309344</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309344</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309344</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493181</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366219</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.294683683236</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3445.294683683236</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3040.43922909427</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3040.43922909427</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2632.153105393923</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066445</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>430.7867198728568</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>430.7867198728568</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>430.7867198728568</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>430.7867198728568</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>430.7867198728568</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.240737869171</v>
+        <v>1092.65905165734</v>
       </c>
       <c r="C13" t="n">
-        <v>768.240737869171</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>602.3627450706937</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>474.3181202553093</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>474.3181202553093</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>308.726845281137</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715116</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2613.163784754632</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2367.284338333087</v>
       </c>
       <c r="U13" t="n">
-        <v>1991.852694483915</v>
+        <v>2088.851337586192</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.897186354346</v>
+        <v>1801.895829456623</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.870781940637</v>
+        <v>1529.869425042914</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.47902727405</v>
+        <v>1284.477670376327</v>
       </c>
       <c r="Y13" t="n">
-        <v>960.0593565881582</v>
+        <v>1284.477670376327</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5285,43 +5285,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>949.5782250957668</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C16" t="n">
-        <v>777.0165135789917</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D16" t="n">
-        <v>611.1385207805145</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E16" t="n">
-        <v>441.3805170312517</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>332.8517649768962</v>
       </c>
       <c r="G16" t="n">
         <v>242.1630145804051</v>
@@ -5461,25 +5461,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.396843814754</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5516,49 +5516,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,22 +5753,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785924</v>
@@ -5777,25 +5777,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="23">
@@ -5981,52 +5981,52 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993936</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827332</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785927</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
         <v>406.885835245268</v>
@@ -6057,10 +6057,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
         <v>128.3245134312372</v>
@@ -6069,37 +6069,37 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
         <v>1196.412455590541</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C25" t="n">
         <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674088</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>673.121292818146</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799022</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
         <v>330.8229638057298</v>
@@ -6142,13 +6142,13 @@
         <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2040.550627261643</v>
       </c>
       <c r="V25" t="n">
-        <v>1890.555778681944</v>
+        <v>1753.595119132073</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.529374268236</v>
+        <v>1481.568714718365</v>
       </c>
       <c r="X25" t="n">
-        <v>1373.137619601648</v>
+        <v>1236.176960051778</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,49 +6227,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6537,10 +6537,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2146.513004522818</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2479.887293205148</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2041.744820388571</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1619.339354129081</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1185.564609287376</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>757.6971796965843</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>372.6990557327243</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>535.2232960417346</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>1369.573587999912</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="M32" t="n">
-        <v>2758.053686176684</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>2474.28803732548</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3454.467703895787</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4282.777578729182</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4829.276364687777</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>4998.430429440834</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>4914.778555624671</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4711.111035910586</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4468.288440640479</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4105.671490574306</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3717.215743398215</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3298.073279977526</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2906.186863690055</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>606.1403535801095</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>499.6838924167517</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>404.593603563305</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>310.4731888902587</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>227.0893505064203</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>141.7042607726042</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>126.0322817492743</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>450.5906067154866</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>1763.208370067626</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>1699.752932516009</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>1393.237741846579</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>853.9300338806519</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>727.4442546598726</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1064.228817310564</v>
       </c>
       <c r="C34" t="n">
-        <v>910.359044888629</v>
+        <v>908.0668132066655</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030279</v>
+        <v>758.5885278210644</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>605.2302314846784</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>444.9228848593108</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>295.7313172980146</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>172.2288504012652</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>202.6216469888664</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>493.4534547953619</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>927.7366897986828</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2660.948916274803</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2845.215044374495</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2467.875530194947</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2205.842236860928</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1935.286436144235</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1679.659739143402</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1450.667691889691</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>1051.593639598849</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>1051.593639598849</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2208.6414748094</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>3334.372458245847</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245847</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079243</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037838</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790894</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,28 +7008,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581788</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
-        <v>422.1250286420302</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.858548712408</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.858548712408</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.858548712408</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.858548712408</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.858548712408</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936683</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D37" t="n">
-        <v>756.186622908067</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716802</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463124</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850161</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882666</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758675</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>925.3347848856836</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361803</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461495</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579743</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290616</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281947</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947932</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231238</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230406</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703679</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7157,67 +7157,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1279.132825422681</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428594</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998901</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832297</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790891</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403415</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566214</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278743</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024877</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7309,55 +7309,55 @@
         <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080664</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716798</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385016</v>
+        <v>293.3294123850159</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758675</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.051549882363</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856839</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
         <v>2465.473625281949</v>
@@ -7369,7 +7369,7 @@
         <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
@@ -7403,10 +7403,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,28 +7415,28 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2524.219518297465</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428596</v>
+        <v>2524.219518297465</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998903</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832299</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
         <v>4607.415497673521</v>
@@ -7482,16 +7482,16 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L42" t="n">
         <v>1102.894748428211</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758674</v>
@@ -7594,7 +7594,7 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
         <v>2465.473625281949</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,46 +7652,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>747.004855336325</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>747.004855336325</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>747.004855336325</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936677</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080665</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716799</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850159</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882665</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758675</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.051549882363</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856839</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7819,10 +7819,10 @@
         <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -7831,25 +7831,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,34 +8052,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8140,19 +8140,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>638.8623105833202</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>638.8623105833203</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>89.37913572431489</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,16 +8295,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>568.6578765457703</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,19 +8374,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>164.0799011666175</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8690,28 +8690,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827336</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>533.8991397189975</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9164,22 +9164,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9401,25 +9401,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9644,7 +9644,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352469</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9875,19 +9875,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9954,10 +9954,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>29.95402330576599</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>524.012372192034</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>747.7485021910738</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,7 +10823,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>753.8499336302475</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.93455261497138</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,16 +11063,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>818.3363029781626</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>655.9981329904114</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>104.12687040372</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>45.80001796008122</v>
+        <v>410.1802615532644</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.70203726478292</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.090339436214857e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.29624514453963</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>74.15349933190733</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>141.6500182959538</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>74.1534993319044</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.0953302292553</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>219.0118993322384</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>26.33579611060375</v>
       </c>
       <c r="V25" t="n">
-        <v>140.7232059832941</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,13 +24886,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>850906.5304129985</v>
+        <v>710125.4553304578</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>927568.1039866322</v>
+        <v>942971.287817563</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>927568.1039866322</v>
+        <v>945028.2068673664</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807371.5584552614</v>
+        <v>963387.1260846016</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>978715.1900771443</v>
+        <v>977134.7773709247</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48968.57601488122</v>
+        <v>40436.38964624239</v>
       </c>
       <c r="C2" t="n">
-        <v>53614.73198904084</v>
+        <v>53614.73198904085</v>
       </c>
       <c r="D2" t="n">
         <v>53614.73198904085</v>
       </c>
       <c r="E2" t="n">
-        <v>44153.57204509639</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="F2" t="n">
-        <v>52685.75841373522</v>
+        <v>52685.75841373525</v>
       </c>
       <c r="G2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373525</v>
       </c>
       <c r="H2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="I2" t="n">
-        <v>52685.75841373525</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="J2" t="n">
         <v>52685.75841373524</v>
       </c>
       <c r="K2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="L2" t="n">
-        <v>53614.73198904088</v>
+        <v>53614.73198904082</v>
       </c>
       <c r="M2" t="n">
+        <v>53614.73198904086</v>
+      </c>
+      <c r="N2" t="n">
+        <v>53614.73198904083</v>
+      </c>
+      <c r="O2" t="n">
+        <v>53614.73198904083</v>
+      </c>
+      <c r="P2" t="n">
         <v>53614.73198904085</v>
-      </c>
-      <c r="N2" t="n">
-        <v>53614.73198904086</v>
-      </c>
-      <c r="O2" t="n">
-        <v>53614.73198904086</v>
-      </c>
-      <c r="P2" t="n">
-        <v>53614.73198904086</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.13118371995</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8900.449092101861</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725246</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471817</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197374</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>12988.56827099789</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978837</v>
+        <v>144718.1170387507</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341138</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185574.3908571708</v>
+        <v>136875.4802388638</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>178390.1777075792</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>79513.37073726676</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="F4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="G4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="H4" t="n">
-        <v>94878.44464875292</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94878.4446487528</v>
-      </c>
       <c r="J4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>100220.8024653861</v>
+        <v>103678.8250359888</v>
       </c>
       <c r="M4" t="n">
-        <v>107302.2988178704</v>
+        <v>107302.2988178706</v>
       </c>
       <c r="N4" t="n">
         <v>107302.2988178705</v>
       </c>
       <c r="O4" t="n">
+        <v>107302.2988178705</v>
+      </c>
+      <c r="P4" t="n">
         <v>107302.2988178706</v>
-      </c>
-      <c r="P4" t="n">
-        <v>107302.2988178705</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.42848346586</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579255</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,16 +26497,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826067</v>
+        <v>77341.06245996883</v>
       </c>
       <c r="M5" t="n">
         <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608971</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-338221.9036392219</v>
+        <v>-298384.6379481237</v>
       </c>
       <c r="C6" t="n">
-        <v>-217903.1755853994</v>
+        <v>-266566.0053857242</v>
       </c>
       <c r="D6" t="n">
-        <v>-217903.1755853994</v>
+        <v>-203387.7769312618</v>
       </c>
       <c r="E6" t="n">
-        <v>-268792.357291797</v>
+        <v>-302289.2584012426</v>
       </c>
       <c r="F6" t="n">
-        <v>-199049.8305455283</v>
+        <v>-119934.1491801928</v>
       </c>
       <c r="G6" t="n">
-        <v>-119910.9248408101</v>
+        <v>-119934.1491801928</v>
       </c>
       <c r="H6" t="n">
-        <v>-119910.9248408102</v>
+        <v>-119934.1491801928</v>
       </c>
       <c r="I6" t="n">
-        <v>-119910.9248408101</v>
+        <v>-119934.1491801928</v>
       </c>
       <c r="J6" t="n">
-        <v>-230925.3901858002</v>
+        <v>-230948.614525183</v>
       </c>
       <c r="K6" t="n">
-        <v>-119910.9248408102</v>
+        <v>-175156.6880721666</v>
       </c>
       <c r="L6" t="n">
-        <v>-138677.7972856038</v>
+        <v>-140393.7237779147</v>
       </c>
       <c r="M6" t="n">
-        <v>-258561.602952803</v>
+        <v>-273921.2985936701</v>
       </c>
       <c r="N6" t="n">
-        <v>-196852.3818283307</v>
+        <v>-129203.1815549194</v>
       </c>
       <c r="O6" t="n">
         <v>-129203.1815549194</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833202</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26808,7 +26808,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26817,10 +26817,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384745</v>
+        <v>1249.607607360208</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947724</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632158</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.65289602453678</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072317</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.201481557409</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201039</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632158</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702099</v>
+        <v>580.7214853644031</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574084</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632158</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>28.65289602453678</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072317</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.201481557409</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>327.4238165735799</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>26.63550617822341</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13.40849374161991</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,7 +27552,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>66.17293074475134</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39.10442125550668</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.00787993732098</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>365.0737364684111</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>157.8778176401777</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>97.19887496371848</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>188.7859682306102</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>370.1803477317475</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="E10" t="n">
-        <v>13.66886572938449</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>13.36927538040516</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,13 +29761,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29800,22 +29800,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874721</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874606</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874697</v>
       </c>
       <c r="C41" t="n">
         <v>16.23571033874736</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874896</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.2357103387473</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,34 +34772,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>638.8623105833202</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>638.8623105833203</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>89.37913572431489</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,16 +35015,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>568.6578765457703</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,22 +35094,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>164.0799011666175</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1002.059021827336</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>533.8991397189975</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,22 +35884,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,25 +36121,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,13 +36358,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352469</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36595,19 +36595,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36674,10 +36674,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>29.95402330576599</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>524.012372192034</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>747.7485021910738</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778279</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348438</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467887</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033059</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900414</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
         <v>367.2527749552542</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>753.8499336302475</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.93455261497138</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37704,16 +37704,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900414</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37783,16 +37783,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>818.3363029781626</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>655.9981329904114</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,16 +38181,16 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900432</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q46" t="n">
         <v>186.127402120901</v>
